--- a/data/Map026.xlsx
+++ b/data/Map026.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0350D5B4-5C40-4DB8-941C-7DE58E014D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>自動実行</t>
   </si>
@@ -259,19 +264,225 @@
     <t>\n&lt;メイド&gt;あ、私はティッキと申します。
 また・・・どこかでお会いできるといいですね。
 それでは・・・</t>
+  </si>
+  <si>
+    <t>The Misty Mansion is completely destroyed...</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;Hiiiii!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;...!
+Master \n[1]...!
+You're safe...</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;The research lab... It's completely gone.
+It's better like this though... Something like
+that should have never existed.</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;I'm heading to the adventurer's guild now.
+I'm going to tell them everything that's happened.
+About the mansion... About Velvet...</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;Thank you so much... Truly...!
+I'm finally free..
+I'm never coming back here again.</t>
+  </si>
+  <si>
+    <t>\n&lt;Maid&gt;Ah, my name is Tiki.
+I hope... We can meet again somewhere, someday.
+Until then...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Wh-what? But...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;N-no, actually I'd prefer if you 
+made my penis go away...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Th-that liar...\.
+She said she...\.\.
+Wouldn't drain my energy...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;She...\. Said she'd take away my penis...\.\.
+She promised...</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;...</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Ako made out pretty well from all this, nyan.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Did you hear that, nya? Just now!
+All-you-can-eat human buffet, nya!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;I'm gonna look for some cigarettes, nya.
+I can smoke it as long as it's not completely crushed.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Our home...
+It's gone...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;...
+It beats being buried alive-.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;I'll go have a look around too.
+Hopefully there's still a little sugar left.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;(So we need to get away from here before then.
+Hah... Honestly.
+Both you siblings are too soft for your own good.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You've really gotta learn to read the room...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...
+\n[1], come over here.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Errrm...
+Well...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You helped us out, and I want to thank you for that.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You know how a succubus says thank you, right?
+That's all I have to offer you now. \nI don't want to owe you anything.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You've been holding it all back.
+I can make you feel all better.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Alright, alright. But before that...
+Don't worry, I won't drain you.
+Promise.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;It's fine.
+I won't drain you.
+Promise.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Please.
+Trust me.
+Otherwise this feeling will never subside.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...
+(I was planning to deceive you and drain your energy
+right from the start... But I took things too far.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Phew...
+This should be enough to restore the others.
+Thanks.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;See you later. \n[1].</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;But at least everyone got out safe!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;I'll go with you then!
+Santa's probably waiting for me now.</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;...
+Monster research.
+They went this far to concel it.</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;\n[1], I'll head back to the guild and call for support.
+They must have left some clues behind.</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Keep an eye on Lily in the meantime, please.
+Understand? I'm coming back with a lot of people.
+Keep a close eye on them until then.</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Let me repeat that once more, \n[1].\.\.
+\{I'm coming back with a LOT of people.</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Alright, see you later.</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;\n[1]! I've returned!
+\n[1]...</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;H-hey! Are you ok!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Alsto&gt;Kuh! Those bitches...!
+They won't get away next time...!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Monster research...
+Did they really have to go this far to hide it?</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Yeah...
+They nearly buried us all alive.
+They must have left some clues behind.</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Brother, I'm going back to the guild to report this.
+I'll assemble a party and come back.</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Keep an eye on Lily and the others for now.
+Don't let your guard down until I get back.</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Did you hear me?\.\.
+\{I'm bringing a LOT of people back here.</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;I'll see you soon.</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Brother-!\. I've come back-!\.\.
+Br...</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;\{BROTHER-!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Those jerks...!!\.
+I should've gotten them when I had the chance...!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -282,28 +493,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -593,350 +816,500 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="78.5703125" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B19" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+      <c r="B61" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
+      <c r="B64" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>